--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689997.5032594878</v>
+        <v>-691885.0847758901</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>265.7270558067563</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>193.3585788376309</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>94.69402002676107</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>27.37301815328992</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>3.270884136074119</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>329.3165257673313</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>129.0036366911897</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>144.8086284801606</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.01032806733599</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>91.80092000665026</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.6215839152614</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.2787299119455</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>105.2861465028099</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>11.59610874633566</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>23.00523344579958</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.92416414373135</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151919</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>164.3675597136121</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.043564470071</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896555</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801231</v>
+        <v>91.23070601801194</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437439</v>
+        <v>90.21779139437402</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389789</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.749002612111795</v>
+        <v>54.76109577523556</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>60.60821201063389</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463091</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3673,7 +3673,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.689018870909</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.726501930497</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.726501930497</v>
+        <v>660.2405824055588</v>
       </c>
       <c r="E2" t="n">
-        <v>816.938249332253</v>
+        <v>660.2405824055588</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>249.2546776159513</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.288858935031</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>603.0615397804995</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="T4" t="n">
-        <v>308.6274700262513</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.00952757579</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1175.00952757579</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.2143237195166</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>878.792389802288</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>493.0041372040437</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>82.01823241443617</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>68.09482835302707</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>68.09482835302707</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2549.392199521796</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2295.630414159888</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.567526816317</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.4256366790474</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>597.0741015092871</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,10 +5033,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5048,10 +5048,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.6878657662453</v>
+        <v>244.9733843006348</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.9733843006348</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.9733843006348</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.9733843006348</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.9733843006348</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.9733843006348</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471223</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.60808497467</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557906</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557906</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771464</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655769</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286164</v>
+        <v>465.7659634441649</v>
       </c>
       <c r="X13" t="n">
-        <v>559.336330596485</v>
+        <v>465.7659634441649</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.336330596485</v>
+        <v>244.9733843006348</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405894</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557903</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1475.678661016691</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1186.550022230249</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>931.8655340243623</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W16" t="n">
-        <v>931.8655340243621</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X16" t="n">
-        <v>931.8655340243621</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.072954880832</v>
+        <v>665.6859735286134</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,16 +5595,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.6650364395583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>496.6650364395583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>346.5483970272226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>346.5483970272226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>346.5483970272227</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>346.5483970272227</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>196.130388575166</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765189</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765189</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>496.6650364395583</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>496.6650364395583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>496.6650364395583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,13 +5750,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,13 +5765,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,22 +5832,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655739</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286133</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>223.1552313137082</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>634.0455001582209</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>880.810628064685</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609666</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550797</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181191</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201018</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582209</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>880.810628064685</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6494,13 +6494,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.0294937553498</v>
+        <v>543.3437276440234</v>
       </c>
       <c r="C31" t="n">
-        <v>374.8541761088135</v>
+        <v>543.3437276440234</v>
       </c>
       <c r="D31" t="n">
-        <v>280.4984019778483</v>
+        <v>543.3437276440234</v>
       </c>
       <c r="E31" t="n">
-        <v>188.3461736768257</v>
+        <v>451.1914993430012</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1929.308888700404</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1785.149743897327</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1617.125193968203</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1383.757420463132</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1184.833797538615</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>951.1774927830253</v>
+        <v>902.6804289818961</v>
       </c>
       <c r="X31" t="n">
-        <v>778.9488071663785</v>
+        <v>730.4517433652496</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.917093304219</v>
+        <v>669.2313271928922</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6713,13 +6713,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,7 +6932,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,31 +6950,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,7 +7585,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
@@ -7594,10 +7594,10 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>85.30006332127745</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>223.6742649934472</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735866</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>2.635098455590628</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>120.4235088862272</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>137.0193642718767</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>198.5423276125897</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>12.49508132054063</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338581</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>61.3420956754251</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>51.71984429841004</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965513</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897927</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571512</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.01209316312413</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>102.7731847129037</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.192202140984591e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
@@ -26323,19 +26323,19 @@
         <v>195514.5298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="G2" t="n">
         <v>195514.5298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="I2" t="n">
         <v>195514.5298688544</v>
       </c>
       <c r="J2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="K2" t="n">
         <v>203411.0686726353</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284548</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086703</v>
+        <v>10342.90680086674</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284547</v>
+        <v>44162.60530284583</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.66962143906</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143909</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563553</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-624341.4730631057</v>
       </c>
       <c r="C6" t="n">
-        <v>-34373.59384856126</v>
+        <v>-34373.59384856134</v>
       </c>
       <c r="D6" t="n">
         <v>-34373.59384856132</v>
       </c>
       <c r="E6" t="n">
-        <v>-436678.5021781977</v>
+        <v>-436775.9613041697</v>
       </c>
       <c r="F6" t="n">
-        <v>88481.53429869875</v>
+        <v>88384.0751727265</v>
       </c>
       <c r="G6" t="n">
-        <v>88481.53429869871</v>
+        <v>88384.07517272652</v>
       </c>
       <c r="H6" t="n">
-        <v>88481.53429869868</v>
+        <v>88384.07517272666</v>
       </c>
       <c r="I6" t="n">
-        <v>88481.53429869871</v>
+        <v>88384.07517272655</v>
       </c>
       <c r="J6" t="n">
-        <v>-87941.68489389426</v>
+        <v>-88039.14401986641</v>
       </c>
       <c r="K6" t="n">
-        <v>29409.96270393152</v>
+        <v>29391.46896599666</v>
       </c>
       <c r="L6" t="n">
-        <v>59737.97298241915</v>
+        <v>59737.97298241941</v>
       </c>
       <c r="M6" t="n">
-        <v>-64720.13545055108</v>
+        <v>-64720.13545055103</v>
       </c>
       <c r="N6" t="n">
+        <v>70080.87978328617</v>
+      </c>
+      <c r="O6" t="n">
         <v>70080.87978328613</v>
       </c>
-      <c r="O6" t="n">
-        <v>70080.87978328612</v>
-      </c>
       <c r="P6" t="n">
-        <v>25918.27448044067</v>
+        <v>25918.2744804403</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108379</v>
+        <v>12.92863350108343</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855728</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>141.1489899349552</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>220.425591183164</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51.97117195339679</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>197.6620873047944</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>362.0020076349334</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>56.92141288872233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>38.24318440743812</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.6124195427705956</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>137.9209881775253</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>124.6474003510075</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>117.9630694368334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855685</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789756</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>127.2102422761842</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>374.2497035813865</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586608</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941224</v>
+        <v>67.71102679412276</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043163</v>
+        <v>94.42895660043199</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,22 +37309,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349766</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
